--- a/FpcApi/FpcApi/App_Data/Data.xlsx
+++ b/FpcApi/FpcApi/App_Data/Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manoj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barca\Desktop\AgriDigital\Hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -67,18 +67,9 @@
     <t>AgriTrade Exports</t>
   </si>
   <si>
-    <t>Org2</t>
-  </si>
-  <si>
-    <t>AMPs</t>
-  </si>
-  <si>
     <t>Aust. Grain Store</t>
   </si>
   <si>
-    <t>Aust. Grower Direct</t>
-  </si>
-  <si>
     <t>Berriwillock Grain</t>
   </si>
   <si>
@@ -100,15 +91,6 @@
     <t>GrainWAGEN</t>
   </si>
   <si>
-    <t>GrainOntheGo</t>
-  </si>
-  <si>
-    <t>EasyTransport</t>
-  </si>
-  <si>
-    <t>CanolUber</t>
-  </si>
-  <si>
     <t>AH14</t>
   </si>
   <si>
@@ -124,15 +106,6 @@
     <t>AD3</t>
   </si>
   <si>
-    <t>BarleyMotorWorks</t>
-  </si>
-  <si>
-    <t>ChickpeaCargo</t>
-  </si>
-  <si>
-    <t>SowGrowgo</t>
-  </si>
-  <si>
     <t>TruckTypeId</t>
   </si>
   <si>
@@ -302,12 +275,225 @@
   </si>
   <si>
     <t>MaxCap</t>
+  </si>
+  <si>
+    <t>PaymentTerms</t>
+  </si>
+  <si>
+    <t>7 days End of Week</t>
+  </si>
+  <si>
+    <t>Cash-on-Delivery</t>
+  </si>
+  <si>
+    <t>12 days End of Week</t>
+  </si>
+  <si>
+    <t>3 days End of Week</t>
+  </si>
+  <si>
+    <t>1 day End of Week</t>
+  </si>
+  <si>
+    <t>Cash On Delivery</t>
+  </si>
+  <si>
+    <t>Avon (CBH)</t>
+  </si>
+  <si>
+    <t>Arrino (CBH)</t>
+  </si>
+  <si>
+    <t>Ardath (CBH)</t>
+  </si>
+  <si>
+    <t>Aldersyde (CBH)</t>
+  </si>
+  <si>
+    <t>Albany Terminal (CBH)</t>
+  </si>
+  <si>
+    <t>Ainsworth (CBH)</t>
+  </si>
+  <si>
+    <t>Murrami (Aust. Grain Store)</t>
+  </si>
+  <si>
+    <t>Walsh (Aust. Grain Store)</t>
+  </si>
+  <si>
+    <t>Whitton (Aust. Grain Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Willbriggie (Aust. Grain Store)</t>
+  </si>
+  <si>
+    <t>Yenda (Aust. Grain Store)</t>
+  </si>
+  <si>
+    <t>Beanbri (GrainFlow)</t>
+  </si>
+  <si>
+    <t>Bellata (GrainFlow)</t>
+  </si>
+  <si>
+    <t>Gilgandra (GrainCorp)</t>
+  </si>
+  <si>
+    <t>Grong Grong (GrainFlow)</t>
+  </si>
+  <si>
+    <t>Badgebup (CBH)</t>
+  </si>
+  <si>
+    <t>Ballaying (CBH)</t>
+  </si>
+  <si>
+    <t>Ballidu (CBH)</t>
+  </si>
+  <si>
+    <t>"-34.41667"</t>
+  </si>
+  <si>
+    <t>"146.3"</t>
+  </si>
+  <si>
+    <t>"-16.65"</t>
+  </si>
+  <si>
+    <t>"143.9"</t>
+  </si>
+  <si>
+    <t>"-34.51868"</t>
+  </si>
+  <si>
+    <t>"146.18506"</t>
+  </si>
+  <si>
+    <t>"-34.46667"</t>
+  </si>
+  <si>
+    <t>"146.01667"</t>
+  </si>
+  <si>
+    <t>"-34.25013"</t>
+  </si>
+  <si>
+    <t>"146.199"</t>
+  </si>
+  <si>
+    <t>"-29.95"</t>
+  </si>
+  <si>
+    <t>"148.41667"</t>
+  </si>
+  <si>
+    <t>"-29.91911"</t>
+  </si>
+  <si>
+    <t>"149.78886"</t>
+  </si>
+  <si>
+    <t>"-31.63297"</t>
+  </si>
+  <si>
+    <t>"148.70354"</t>
+  </si>
+  <si>
+    <t>"-34.75"</t>
+  </si>
+  <si>
+    <t>"146.8"</t>
+  </si>
+  <si>
+    <t>"-21.46839"</t>
+  </si>
+  <si>
+    <t>"143.95491"</t>
+  </si>
+  <si>
+    <t>"-35.0317007"</t>
+  </si>
+  <si>
+    <t>"117.8887296"</t>
+  </si>
+  <si>
+    <t>"-32.3747"</t>
+  </si>
+  <si>
+    <t>"117.28336"</t>
+  </si>
+  <si>
+    <t>"-32.03247"</t>
+  </si>
+  <si>
+    <t>"118.09518"</t>
+  </si>
+  <si>
+    <t>"-29.44351"</t>
+  </si>
+  <si>
+    <t>"115.63"</t>
+  </si>
+  <si>
+    <t>"-34.28395"</t>
+  </si>
+  <si>
+    <t>"138.33604"</t>
+  </si>
+  <si>
+    <t>"-33.63333"</t>
+  </si>
+  <si>
+    <t>"117.9"</t>
+  </si>
+  <si>
+    <t>"-33.30641"</t>
+  </si>
+  <si>
+    <t>"117.55248"</t>
+  </si>
+  <si>
+    <t>"-30.59841"</t>
+  </si>
+  <si>
+    <t>"116.77026"</t>
+  </si>
+  <si>
+    <t>CBH</t>
+  </si>
+  <si>
+    <t>GrainFlow</t>
+  </si>
+  <si>
+    <t>Moulamein Grain Co-Op</t>
+  </si>
+  <si>
+    <t>Hay Plains Grain Storage</t>
+  </si>
+  <si>
+    <t>Fellows</t>
+  </si>
+  <si>
+    <t>GrainCorp</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>APW2</t>
+  </si>
+  <si>
+    <t>APW3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,23 +841,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.06640625" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.73046875" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,214 +871,471 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -902,80 +1345,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.53125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1002000</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1002001</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>1002002</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>1002003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>1002004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>1002005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -984,108 +1496,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" customWidth="1"/>
-    <col min="3" max="3" width="17.06640625" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1093,52 +1575,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="45.19921875" customWidth="1"/>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1">
         <v>37</v>
       </c>
       <c r="D2" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1">
         <v>29</v>
@@ -1147,45 +1629,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
@@ -1196,35 +1678,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.9296875" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1238,7 +1720,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1252,7 +1734,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1266,7 +1748,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1280,7 +1762,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1294,7 +1776,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1308,7 +1790,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1322,7 +1804,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1336,203 +1818,107 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1">
-        <v>97</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>98</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
-        <v>97</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>99</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1">
-        <v>98</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1">
-        <v>97</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1">
-        <v>99</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1">
-        <v>98</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1">
-        <v>97</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1">
-        <v>98</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
       <c r="D26" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
       <c r="D27" s="2">
         <v>0.09</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="2">
         <v>0.11</v>
@@ -1544,20 +1930,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.265625" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1577,24 +1963,24 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1603,21 +1989,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1002000</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1626,21 +2012,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1002001</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1649,21 +2035,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1672,21 +2058,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1002000</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1695,21 +2081,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1002002</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1718,21 +2104,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1002003</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1741,21 +2127,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1002004</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1764,18 +2150,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1002005</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1787,21 +2173,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1809,6 +2195,1647 @@
       <c r="G11" s="1">
         <v>130</v>
       </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
